--- a/biology/Histoire de la zoologie et de la botanique/Bernard_Landry_(entomologiste)/Bernard_Landry_(entomologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Bernard_Landry_(entomologiste)/Bernard_Landry_(entomologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Landry, né au Québec en 1962, est un lépidoptériste spécialiste des microlépidoptères, en particulier des Pyraloidea et notamment la famille des Crambidae.  Il est diplômé de l'Université de Montréal, effectue son master jusqu'en 1987 à l'Université McGill sur les ptérophores de la sous-famille des Platyptiliinae, puis obtient sa thèse de l'Université Carleton en 1992. Depuis 2001, il est chargé de recherche au Muséum d'histoire naturelle de Genève. Il est membre du comité de rédaction de Nota Lepidopterologica, ZooKeys, Alpine Entomology et de la Revue suisse de Zoologie.
 </t>
@@ -511,11 +523,13 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Landry est le dédicataire des espèces suivantes :
 Adaina bernardi Gielis, 1992
-Afroromieuxia bernardlandryi Bassi, 2021[1]
+Afroromieuxia bernardlandryi Bassi, 2021
 Amblyptilia landryi Gielis, 2006
 Cameraria landryi De Prins, 2012
 Celaenorrhinus landryi Libert, 2014
@@ -525,7 +539,7 @@
 Microchilo landryi Li, 2018
 Netechmodes landryi Razowski, 2004
 Praepedaliodes landryi Pyrcz &amp; Freitas, 2017
-Rhiza bernardi L. Ronkay &amp; G. Ronkay, 2023[2]
+Rhiza bernardi L. Ronkay &amp; G. Ronkay, 2023
 Tricheurois landryi Varga, Ronkay, Gyulai, Kiss &amp; Ronkay, 2020
 </t>
         </is>
@@ -555,80 +569,82 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Landry est le descripteur ou co-descripteur de trois tribus :
 Euchromiusini Léger, Landry &amp; Nuss, 2019
-Haimbachiini  Landry, 1995[3]
-Prionapterygini Landry, 1995[3]
+Haimbachiini  Landry, 1995
+Prionapterygini Landry, 1995
 De treize genres :
-Almita Landry, 1995[3]
-Aulombardia L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Blascocostaligia L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Cheverella Landry, 2011[4]
+Almita Landry, 1995
+Aulombardia L. Ronkay, G. Ronkay &amp; Landry, 2023
+Blascocostaligia L. Ronkay, G. Ronkay &amp; Landry, 2023
+Cheverella Landry, 2011
 Chileoptilia Vargas &amp; Landry, 2005
-Galagete Landry, 2002[5]
-Grenonia L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Lorrainlandryia L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Neodactria Landry, 1995[3]
+Galagete Landry, 2002
+Grenonia L. Ronkay, G. Ronkay &amp; Landry, 2023
+Lorrainlandryia L. Ronkay, G. Ronkay &amp; Landry, 2023
+Neodactria Landry, 1995
 Shafferiessa Landry &amp; Neunzig, 1998
 Transeuplexia L. Ronkay, G. Ronkay &amp; Landry, 2020
-Vernieria L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Xavierperretia L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
+Vernieria L. Ronkay, G. Ronkay &amp; Landry, 2023
+Xavierperretia L. Ronkay, G. Ronkay &amp; Landry, 2023
 Et des espèces ou sous-espèces suivantes :
 Acrocercops serrigera galapagosensis Landry, 2006
 Adaina scalesiae Landry, Roque-Albelo &amp; Matthews, 2004
 Agathodes galapagensis Landry, 2016
-Almita portalia Landry, 1995[3]
-Almita texana Landry, 1995[3]
+Almita portalia Landry, 1995
+Almita texana Landry, 1995
 Alucita adriendenisi Landry &amp; Landry, 2004
 Alucita lalannei Landry &amp; Landry, 2004
-Antha descombesi L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Apamea andrepougeti L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Apamea aquila heizmanni L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Apamea bernhardmayi L. Ronkay, G. Ronkay, Landry &amp; Zilli, 2022[6]
-Apamea ericmetzleri L. Ronkay, G. Ronkay, Landry &amp; Zilli, 2022[6]
-Apamea norbertkeili L. Ronkay, G. Ronkay, Landry &amp; Zilli, 2022[6]
-Apamea oblonga michelabilalliae L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Apamea ploessli L. Ronkay, G. Ronkay, Landry &amp; Zilli, 2022[6]
-Apamea stangelmaieri L. Ronkay, G. Ronkay, Landry &amp; Zilli, 2022[6]
+Antha descombesi L. Ronkay, G. Ronkay &amp; Landry, 2023
+Apamea andrepougeti L. Ronkay, G. Ronkay &amp; Landry, 2023
+Apamea aquila heizmanni L. Ronkay, G. Ronkay &amp; Landry, 2023
+Apamea bernhardmayi L. Ronkay, G. Ronkay, Landry &amp; Zilli, 2022
+Apamea ericmetzleri L. Ronkay, G. Ronkay, Landry &amp; Zilli, 2022
+Apamea norbertkeili L. Ronkay, G. Ronkay, Landry &amp; Zilli, 2022
+Apamea oblonga michelabilalliae L. Ronkay, G. Ronkay &amp; Landry, 2023
+Apamea ploessli L. Ronkay, G. Ronkay, Landry &amp; Zilli, 2022
+Apamea stangelmaieri L. Ronkay, G. Ronkay, Landry &amp; Zilli, 2022
 Astrotischeria alcedoensis Landry, 2004
 Astrotischeria scalesiaella Landry, 2004
-Athetis andreluethii L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Athetis baptisteguyei L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Athetis hiltbrandi L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Athetis jacquelinestuderae L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Athetis naciriae L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Bucculatrix caribbea Davis &amp; Landry, 2002[7]
-Bucculatrix cordiaella Davis &amp; Landry, 2002[7]
-Callyna bijlengai L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Callyna danielneroni L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Callyna theolegeri L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
+Athetis andreluethii L. Ronkay, G. Ronkay &amp; Landry, 2023
+Athetis baptisteguyei L. Ronkay, G. Ronkay &amp; Landry, 2023
+Athetis hiltbrandi L. Ronkay, G. Ronkay &amp; Landry, 2023
+Athetis jacquelinestuderae L. Ronkay, G. Ronkay &amp; Landry, 2023
+Athetis naciriae L. Ronkay, G. Ronkay &amp; Landry, 2023
+Bucculatrix caribbea Davis &amp; Landry, 2002
+Bucculatrix cordiaella Davis &amp; Landry, 2002
+Callyna bijlengai L. Ronkay, G. Ronkay &amp; Landry, 2023
+Callyna danielneroni L. Ronkay, G. Ronkay &amp; Landry, 2023
+Callyna theolegeri L. Ronkay, G. Ronkay &amp; Landry, 2023
 Caloptilia cruzorum Landry, 2006
 Caloptilia dondavisi Landry, 2006
 Caloptilia galacotra Landry, 2006
 Calosima darwini Adamski &amp; Landry, 1997
-Catharylla bijuga Léger &amp; Landry, 2014[8]
-Catharylla chelicerata Léger &amp; Landry, 2014[8]
-Catharylla coronata Léger &amp; Landry, 2014[8]
-Catharylla gigantea Léger &amp; Landry, 2014[8]
-Catharylla mayrabonillae Léger &amp; Landry, 2014[8]
-Catharylla serrabonita Léger &amp; Landry, 2014[8]
+Catharylla bijuga Léger &amp; Landry, 2014
+Catharylla chelicerata Léger &amp; Landry, 2014
+Catharylla coronata Léger &amp; Landry, 2014
+Catharylla gigantea Léger &amp; Landry, 2014
+Catharylla mayrabonillae Léger &amp; Landry, 2014
+Catharylla serrabonita Léger &amp; Landry, 2014
 Caudellia galapagosensis Landry &amp; Neunzig, 2006
-Cheverella galapagensis Landry, 2011[4]
+Cheverella galapagensis Landry, 2011
 Chileoptilia yaroella Vargas &amp; Landry, 2005
 Chionodes manabiensis Schmitz &amp; Landry, 2007
 Chionodes stefaniae Schmitz &amp; Landry, 2007
-Cirrhia jacquesplantei L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Coelostathma caerulea Landry, 2001[9]
-Coelostathma cocoana Landry, 2001[9]
-Coelostathma continua Landry, 2001[9]
-Coelostathma pygmaea Landry, 2001[9]
-Coelostathma xocoatlana Landry, 2001[9]
+Cirrhia jacquesplantei L. Ronkay, G. Ronkay &amp; Landry, 2023
+Coelostathma caerulea Landry, 2001
+Coelostathma cocoana Landry, 2001
+Coelostathma continua Landry, 2001
+Coelostathma pygmaea Landry, 2001
+Coelostathma xocoatlana Landry, 2001
 Coniostola isabelae Razowski &amp; Landry, 2008
-Cosmopterix galapagosensis Landry, 2001[10]
-Cosmopterix madeleinae Landry, 2001[10]
-Cosmopterix yvani Landry, 2001[10]
+Cosmopterix galapagosensis Landry, 2001
+Cosmopterix madeleinae Landry, 2001
+Cosmopterix yvani Landry, 2001
 Cryptolectica lazaroi Landry, 2006
 Desmia mordor Landry &amp; Solis, 2016
 Dialectica galapagosensis Landry, 2006
@@ -646,42 +662,42 @@
 Ephysteris sporobolella Landry, 2010
 Epinotia microscyphos Razowski &amp; Landry, 2008
 Episimus alcedanus Razowski &amp; Landry, 2008
-Erdemsevenia marcaudardi L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
+Erdemsevenia marcaudardi L. Ronkay, G. Ronkay &amp; Landry, 2023
 Eupithecia galapagosata Landry &amp; Rindge, 1995
 Exelastis dowi Matthews &amp; Landry, 2008
-Galagete cinerea Landry, 2002[5]
-Galagete consimilis Landry, 2002[5]
-Galagete cristobalensis Landry, 2002[5]
-Galagete darwini Landry, 2002[5]
-Galagete espanolaensis Landry, 2002[5]
+Galagete cinerea Landry, 2002
+Galagete consimilis Landry, 2002
+Galagete cristobalensis Landry, 2002
+Galagete darwini Landry, 2002
+Galagete espanolaensis Landry, 2002
 Galagete griseonana Schmitz &amp; Landry, 2005
 Galagete krameri Landry &amp; Schmitz, 2008
-Galagete levequei Landry, 2002[5]
-Galagete pecki Landry, 2002[5]
+Galagete levequei Landry, 2002
+Galagete pecki Landry, 2002
 Galagete pecki flavofasciata Schmitz &amp; Landry, 2005
-Galagete pecki pecki Landry, 2002[5]
-Galagete seymourensis Landry, 2002[5]
-Galagete turritella Landry, 2002[5]
+Galagete pecki pecki Landry, 2002
+Galagete seymourensis Landry, 2002
+Galagete turritella Landry, 2002
 Geina sheppardi Landry, 1989
-Grenonia papplaci L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
+Grenonia papplaci L. Ronkay, G. Ronkay &amp; Landry, 2023
 Haplochrois galapagosalis Landry, 2001
 Hedya brunneograpta Razowski &amp; Landry, 2008
 Heliodines galapagoensis Heppner &amp; Landry, 1994
-Hellinsia danielae Landry &amp; Gielis, 2022[11]
+Hellinsia danielae Landry &amp; Gielis, 2022
 Hellula galapagensis Landry, 2008
-Hemerodromia fibrina Landry &amp; Harper, 1985[12]
+Hemerodromia fibrina Landry &amp; Harper, 1985
 Holcocera gozmanyi Adamski &amp; Landry, 2007
-Hoplodrina piffarettii L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Hypocalamia meterythra yvonneberneyae L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Ithome volcanica Landry, 2001[10]
-La cerveza Landry, 1995[3]
-Leucochlaena caillezi L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
+Hoplodrina piffarettii L. Ronkay, G. Ronkay &amp; Landry, 2023
+Hypocalamia meterythra yvonneberneyae L. Ronkay, G. Ronkay &amp; Landry, 2023
+Ithome volcanica Landry, 2001
+La cerveza Landry, 1995
+Leucochlaena caillezi L. Ronkay, G. Ronkay &amp; Landry, 2023
 Lineodes corinnae Landry, 2016
 Lineodes vulcanalis Landry, 2016
-Litoligia benierae L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
+Litoligia benierae L. Ronkay, G. Ronkay &amp; Landry, 2023
 Macrorrhinia pinta Landry &amp; Neunzig, 1998
 Megalota johni Razowski &amp; Landry, 2008
-Metopoceras omar comitinoguexae L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
+Metopoceras omar comitinoguexae L. Ronkay, G. Ronkay &amp; Landry, 2023
 Micrelephas chalybeus Landry, 2003
 Micrelephas gaskini Landry, 2003
 Micrelephas helenae Landry, 2003
@@ -689,12 +705,12 @@
 Micrelephas pseudokadenii Landry, 2003
 Microcrambus arevaloi Landry, 2020
 Microcrambus leticiensis Landry, 2020
-Moma alpium rossanamartiniae L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
-Mudaria arnaudmaederi L. Ronkay, G. Ronkay, Pekarsky &amp; Landry, 2023[2]
-Mudaria bogdanpopescui L. Ronkay, G. Ronkay, Pekarsky &amp; Landry, 2023[2]
-Mudaria helenetrudelae L. Ronkay, G. Ronkay, Pekarsky &amp; Landry, 2023[2]
-Mudaria stahlgretschae L. Ronkay, G. Ronkay, Pekarsky &amp; Landry, 2023[2]
-Mudaria vallottoni L. Ronkay, G. Ronkay, Pekarsky &amp; Landry, 2023[2]
+Moma alpium rossanamartiniae L. Ronkay, G. Ronkay &amp; Landry, 2023
+Mudaria arnaudmaederi L. Ronkay, G. Ronkay, Pekarsky &amp; Landry, 2023
+Mudaria bogdanpopescui L. Ronkay, G. Ronkay, Pekarsky &amp; Landry, 2023
+Mudaria helenetrudelae L. Ronkay, G. Ronkay, Pekarsky &amp; Landry, 2023
+Mudaria stahlgretschae L. Ronkay, G. Ronkay, Pekarsky &amp; Landry, 2023
+Mudaria vallottoni L. Ronkay, G. Ronkay, Pekarsky &amp; Landry, 2023
 Myelobia nicaraguensis Landry &amp; Maes, 2015
 Neodactria cochisensis Landry &amp; Albu, 2012
 Neodactria daemonis Landry &amp; Klots, 2005
@@ -707,14 +723,14 @@
 Oidaematophorus cristobalis Landry &amp; Gielis, 1992
 Oidaematophorus devriesi Landry &amp; Gielis, 1992
 Orthosia (Monima) helenae Landry, L. Ronkay &amp; G. Ronkay, 2020
-Parapediasia torquatella Landry, 1995[3]
+Parapediasia torquatella Landry, 1995
 Paraplatyptilia atlantica Landry &amp; Gielis, 2008
-Periploca darwini Landry, 2001[10]
-Periploca longipenis Landry, 2001[10]
-Phlogophora albovittata barbuti L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
+Periploca darwini Landry, 2001
+Periploca longipenis Landry, 2001
+Phlogophora albovittata barbuti L. Ronkay, G. Ronkay &amp; Landry, 2023
 Platyptilia nigroapicalis Landry &amp; Gielis, 1992
 Platyptilia vilema Landry, 1993
-Postplatyptilia chicaquensis Landry &amp; Gielis, 2022[11]
+Postplatyptilia chicaquensis Landry &amp; Gielis, 2022
 Postplatyptilia huigraica Landry &amp; Gielis, 1992
 Postplatyptilia minima Landry &amp; Gielis, 1992
 Prays galapagosella Landry &amp; Landry, 1998
@@ -730,34 +746,34 @@
 Scrobipalpula caustonae Landry, 2010
 Scrobipalpula equatoriella Landry, 2010
 Scrobipalpula inornata Landry, 2010
-Sesamia bernardgisini L. Ronkay, G. Ronkay &amp; Landry, 2023[2]
+Sesamia bernardgisini L. Ronkay, G. Ronkay &amp; Landry, 2023
 Shafferiessa galapagoensis Landry &amp; Neunzig, 1997
 Sisyracera jacquelinae Landry, 2016
-Sparganothina alta Landry, 2001[9]
-Sparganothina anopla Landry, 2001[9]
-Sparganothina aureola Landry, 2001[9]
-Sparganothina beckeri Landry, 2001[9]
-Sparganothina browni Landry, 2001[9]
-Sparganothina costaricana Landry, 2001[9]
-Sparganothina covelli Landry, 2001[9]
-Sparganothina cristata Landry, 2001[9]
-Sparganothina cultrata Landry, 2001[9]
-Sparganothina flammea Landry, 2001[9]
-Sparganothina inbiana Landry, 2001[9]
-Sparganothina irregularis Landry, 2001[9]
-Sparganothina laselvana Landry, 2001[9]
-Sparganothina lutea Landry, 2001[9]
-Sparganothina nana Landry, 2001[9]
-Sparganothina neoamoebaea Landry, 2001[9]
-Sparganothina pollicis Landry, 2001[9]
-Sparganothina setosa Landry, 2001[9]
-Sparganothina spinulosa Landry, 2001[9]
-Sparganothina tena Landry, 2001[9]
-Sparganothina ternaria Landry, 2001[9]
-Sparganothina trispinosa Landry, 2001[9]
-Sparganothina venezolana Landry, 2001[9]
-Sparganothina veracruzana Landry, 2001[9]
-Sparganothina volcanica Landry, 2001[9]
+Sparganothina alta Landry, 2001
+Sparganothina anopla Landry, 2001
+Sparganothina aureola Landry, 2001
+Sparganothina beckeri Landry, 2001
+Sparganothina browni Landry, 2001
+Sparganothina costaricana Landry, 2001
+Sparganothina covelli Landry, 2001
+Sparganothina cristata Landry, 2001
+Sparganothina cultrata Landry, 2001
+Sparganothina flammea Landry, 2001
+Sparganothina inbiana Landry, 2001
+Sparganothina irregularis Landry, 2001
+Sparganothina laselvana Landry, 2001
+Sparganothina lutea Landry, 2001
+Sparganothina nana Landry, 2001
+Sparganothina neoamoebaea Landry, 2001
+Sparganothina pollicis Landry, 2001
+Sparganothina setosa Landry, 2001
+Sparganothina spinulosa Landry, 2001
+Sparganothina tena Landry, 2001
+Sparganothina ternaria Landry, 2001
+Sparganothina trispinosa Landry, 2001
+Sparganothina venezolana Landry, 2001
+Sparganothina veracruzana Landry, 2001
+Sparganothina volcanica Landry, 2001
 Stegasta francisci Landry, 2010
 Stenoptilodes gielisi Landry, 1993
 Stilbosis schmitzi Landry, 2008
@@ -797,7 +813,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Années 1980
